--- a/API文档.xlsx
+++ b/API文档.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="930" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -190,8 +190,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -378,7 +378,7 @@
         <xdr:cNvPr id="1025" name="Picture 1" descr="C:\Users\Administrator\Documents\Tencent Files\519809848\Image\C2C\80QPG)2U8~V)9HJ@`I71BBD.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000001040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -424,7 +424,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -477,7 +477,7 @@
         <xdr:cNvPr id="1026" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -530,7 +530,7 @@
         <xdr:cNvPr id="3" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -583,7 +583,7 @@
         <xdr:cNvPr id="4" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -636,7 +636,7 @@
         <xdr:cNvPr id="1027" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -655,6 +655,100 @@
         <a:xfrm>
           <a:off x="0" y="27298650"/>
           <a:ext cx="12087225" cy="5295900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>169334</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>146050</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>1191684</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10424583" y="1449917"/>
+          <a:ext cx="6898217" cy="3657600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>137584</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>137583</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>232834</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>1166283</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="17314334" y="1418166"/>
+          <a:ext cx="6286500" cy="3663950"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -929,21 +1023,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="29.125" customWidth="1"/>
     <col min="2" max="2" width="37.25" customWidth="1"/>
@@ -952,7 +1046,7 @@
     <col min="5" max="5" width="26.375" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="34.5" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>4</v>
       </c>
@@ -962,7 +1056,7 @@
       <c r="E1" s="10"/>
       <c r="F1" s="10"/>
     </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" s="1" customFormat="1" ht="41.25" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -977,7 +1071,7 @@
       </c>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" s="2" customFormat="1" ht="24.95" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -992,7 +1086,7 @@
       </c>
       <c r="E3" s="7"/>
     </row>
-    <row r="4" spans="1:6" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" s="2" customFormat="1" ht="24.95" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -1007,7 +1101,7 @@
       </c>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" s="2" customFormat="1" ht="24.95" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>25</v>
       </c>
@@ -1022,7 +1116,7 @@
       </c>
       <c r="E5" s="7"/>
     </row>
-    <row r="6" spans="1:6" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" s="2" customFormat="1" ht="24.95" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -1037,7 +1131,7 @@
       </c>
       <c r="E6" s="7"/>
     </row>
-    <row r="7" spans="1:6" s="2" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" s="2" customFormat="1" ht="24.75" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -1052,7 +1146,7 @@
       </c>
       <c r="E7" s="7"/>
     </row>
-    <row r="8" spans="1:6" s="2" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" s="2" customFormat="1" ht="58.5" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -1069,7 +1163,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="2" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" s="2" customFormat="1" ht="49.5" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
@@ -1086,7 +1180,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="2" customFormat="1" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" s="2" customFormat="1" ht="110.25">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -1101,7 +1195,7 @@
       </c>
       <c r="E10" s="7"/>
     </row>
-    <row r="11" spans="1:6" s="2" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" s="2" customFormat="1" ht="50.25" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
@@ -1118,7 +1212,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" s="2" customFormat="1" ht="24.95" customHeight="1">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1" t="s">
@@ -1129,7 +1223,7 @@
       </c>
       <c r="E12" s="7"/>
     </row>
-    <row r="13" spans="1:6" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" s="2" customFormat="1" ht="24.95" customHeight="1">
       <c r="A13"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
@@ -1140,7 +1234,7 @@
       </c>
       <c r="E13" s="7"/>
     </row>
-    <row r="14" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" ht="24.95" customHeight="1">
       <c r="C14" s="1" t="s">
         <v>7</v>
       </c>

--- a/API文档.xlsx
+++ b/API文档.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="930" yWindow="0" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -190,8 +190,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="12">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -378,7 +378,7 @@
         <xdr:cNvPr id="1025" name="Picture 1" descr="C:\Users\Administrator\Documents\Tencent Files\519809848\Image\C2C\80QPG)2U8~V)9HJ@`I71BBD.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000001040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -424,7 +424,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -477,7 +477,7 @@
         <xdr:cNvPr id="1026" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -530,7 +530,7 @@
         <xdr:cNvPr id="3" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -583,7 +583,7 @@
         <xdr:cNvPr id="4" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -636,7 +636,7 @@
         <xdr:cNvPr id="1027" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -655,100 +655,6 @@
         <a:xfrm>
           <a:off x="0" y="27298650"/>
           <a:ext cx="12087225" cy="5295900"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="1">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>169334</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>146050</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>1191684</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="10424583" y="1449917"/>
-          <a:ext cx="6898217" cy="3657600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="1">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>137584</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>137583</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>232834</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>1166283</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="17314334" y="1418166"/>
-          <a:ext cx="6286500" cy="3663950"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1023,21 +929,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="29.125" customWidth="1"/>
     <col min="2" max="2" width="37.25" customWidth="1"/>
@@ -1046,7 +952,7 @@
     <col min="5" max="5" width="26.375" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="34.5" customHeight="1">
+    <row r="1" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>4</v>
       </c>
@@ -1056,7 +962,7 @@
       <c r="E1" s="10"/>
       <c r="F1" s="10"/>
     </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" ht="41.25" customHeight="1">
+    <row r="2" spans="1:6" s="1" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1071,7 +977,7 @@
       </c>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" s="2" customFormat="1" ht="24.95" customHeight="1">
+    <row r="3" spans="1:6" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -1086,7 +992,7 @@
       </c>
       <c r="E3" s="7"/>
     </row>
-    <row r="4" spans="1:6" s="2" customFormat="1" ht="24.95" customHeight="1">
+    <row r="4" spans="1:6" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -1101,7 +1007,7 @@
       </c>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" s="2" customFormat="1" ht="24.95" customHeight="1">
+    <row r="5" spans="1:6" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>25</v>
       </c>
@@ -1116,7 +1022,7 @@
       </c>
       <c r="E5" s="7"/>
     </row>
-    <row r="6" spans="1:6" s="2" customFormat="1" ht="24.95" customHeight="1">
+    <row r="6" spans="1:6" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -1131,7 +1037,7 @@
       </c>
       <c r="E6" s="7"/>
     </row>
-    <row r="7" spans="1:6" s="2" customFormat="1" ht="24.75" customHeight="1">
+    <row r="7" spans="1:6" s="2" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -1146,7 +1052,7 @@
       </c>
       <c r="E7" s="7"/>
     </row>
-    <row r="8" spans="1:6" s="2" customFormat="1" ht="58.5" customHeight="1">
+    <row r="8" spans="1:6" s="2" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -1163,7 +1069,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="2" customFormat="1" ht="49.5" customHeight="1">
+    <row r="9" spans="1:6" s="2" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
@@ -1180,7 +1086,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="2" customFormat="1" ht="110.25">
+    <row r="10" spans="1:6" s="2" customFormat="1" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -1195,7 +1101,7 @@
       </c>
       <c r="E10" s="7"/>
     </row>
-    <row r="11" spans="1:6" s="2" customFormat="1" ht="50.25" customHeight="1">
+    <row r="11" spans="1:6" s="2" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
@@ -1212,7 +1118,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="2" customFormat="1" ht="24.95" customHeight="1">
+    <row r="12" spans="1:6" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1" t="s">
@@ -1223,7 +1129,7 @@
       </c>
       <c r="E12" s="7"/>
     </row>
-    <row r="13" spans="1:6" s="2" customFormat="1" ht="24.95" customHeight="1">
+    <row r="13" spans="1:6" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
@@ -1234,7 +1140,7 @@
       </c>
       <c r="E13" s="7"/>
     </row>
-    <row r="14" spans="1:6" ht="24.95" customHeight="1">
+    <row r="14" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>7</v>
       </c>

--- a/API文档.xlsx
+++ b/API文档.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="40">
   <si>
     <t>接口名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -186,12 +186,41 @@
     <t>返回的是夏校等信息，数据只包含id 和cname</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>搜索接口：</t>
+  </si>
+  <si>
+    <t>methods:GET</t>
+  </si>
+  <si>
+    <t>接口 2017/12/8 17:42:51</t>
+  </si>
+  <si>
+    <t>报名接口：</t>
+  </si>
+  <si>
+    <t>URL:/frontend/sign</t>
+  </si>
+  <si>
+    <t>params:country,education,grade,fullName,mobile</t>
+  </si>
+  <si>
+    <t>methods:POST</t>
+  </si>
+  <si>
+    <t>URL:/frontend/college/search</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>params:cateId,keywords</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -285,6 +314,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -303,10 +340,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -336,9 +374,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -408,16 +448,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2095500</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>137583</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>26458</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>24341</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -441,8 +481,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="0" y="7391400"/>
-          <a:ext cx="11506200" cy="6219825"/>
+          <a:off x="4318000" y="8477250"/>
+          <a:ext cx="11509375" cy="6183841"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -937,10 +977,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1148,13 +1188,61 @@
         <v>10</v>
       </c>
     </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:F1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A16" r:id="rId1" xr:uid="{3A910F8A-E146-4CA6-8CF2-A7BB509963CD}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/API文档.xlsx
+++ b/API文档.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="31">
   <si>
     <t>接口名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -186,41 +186,12 @@
     <t>返回的是夏校等信息，数据只包含id 和cname</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
-  <si>
-    <t>搜索接口：</t>
-  </si>
-  <si>
-    <t>methods:GET</t>
-  </si>
-  <si>
-    <t>接口 2017/12/8 17:42:51</t>
-  </si>
-  <si>
-    <t>报名接口：</t>
-  </si>
-  <si>
-    <t>URL:/frontend/sign</t>
-  </si>
-  <si>
-    <t>params:country,education,grade,fullName,mobile</t>
-  </si>
-  <si>
-    <t>methods:POST</t>
-  </si>
-  <si>
-    <t>URL:/frontend/college/search</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>params:cateId,keywords</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -314,14 +285,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -340,11 +303,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -374,11 +336,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -448,16 +408,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>2095500</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>137583</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>26458</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>24341</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -481,8 +441,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4318000" y="8477250"/>
-          <a:ext cx="11509375" cy="6183841"/>
+          <a:off x="0" y="7391400"/>
+          <a:ext cx="11506200" cy="6219825"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -977,10 +937,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1188,61 +1148,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>37</v>
-      </c>
-    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:F1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="A16" r:id="rId1" xr:uid="{3A910F8A-E146-4CA6-8CF2-A7BB509963CD}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-  <drawing r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/API文档.xlsx
+++ b/API文档.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="930" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="40">
   <si>
     <t>接口名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -186,12 +186,39 @@
     <t>返回的是夏校等信息，数据只包含id 和cname</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>搜索接口：</t>
+  </si>
+  <si>
+    <t>URL:/frontend/college/search</t>
+  </si>
+  <si>
+    <t>params:cateId,keywords</t>
+  </si>
+  <si>
+    <t>methods:GET</t>
+  </si>
+  <si>
+    <t>我的手机 2017-12-11 23:37:04</t>
+  </si>
+  <si>
+    <t>报名接口：</t>
+  </si>
+  <si>
+    <t>URL:/frontend/sign</t>
+  </si>
+  <si>
+    <t>params:country,education,grade,fullName,mobile</t>
+  </si>
+  <si>
+    <t>methods:POST</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -378,7 +405,7 @@
         <xdr:cNvPr id="1025" name="Picture 1" descr="C:\Users\Administrator\Documents\Tencent Files\519809848\Image\C2C\80QPG)2U8~V)9HJ@`I71BBD.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000001040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -410,21 +437,21 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>116417</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>3175</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -441,8 +468,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="0" y="7391400"/>
-          <a:ext cx="11506200" cy="6219825"/>
+          <a:off x="0" y="8815917"/>
+          <a:ext cx="11509375" cy="6183841"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -477,7 +504,7 @@
         <xdr:cNvPr id="1026" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -530,7 +557,7 @@
         <xdr:cNvPr id="3" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -583,7 +610,7 @@
         <xdr:cNvPr id="4" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -636,7 +663,7 @@
         <xdr:cNvPr id="1027" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -929,21 +956,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="29.125" customWidth="1"/>
     <col min="2" max="2" width="37.25" customWidth="1"/>
@@ -952,7 +979,7 @@
     <col min="5" max="5" width="26.375" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="34.5" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>4</v>
       </c>
@@ -962,7 +989,7 @@
       <c r="E1" s="10"/>
       <c r="F1" s="10"/>
     </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" s="1" customFormat="1" ht="41.25" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -977,7 +1004,7 @@
       </c>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" s="2" customFormat="1" ht="24.95" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -992,7 +1019,7 @@
       </c>
       <c r="E3" s="7"/>
     </row>
-    <row r="4" spans="1:6" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" s="2" customFormat="1" ht="24.95" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -1007,7 +1034,7 @@
       </c>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" s="2" customFormat="1" ht="24.95" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>25</v>
       </c>
@@ -1022,7 +1049,7 @@
       </c>
       <c r="E5" s="7"/>
     </row>
-    <row r="6" spans="1:6" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" s="2" customFormat="1" ht="24.95" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -1037,7 +1064,7 @@
       </c>
       <c r="E6" s="7"/>
     </row>
-    <row r="7" spans="1:6" s="2" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" s="2" customFormat="1" ht="24.75" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -1052,7 +1079,7 @@
       </c>
       <c r="E7" s="7"/>
     </row>
-    <row r="8" spans="1:6" s="2" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" s="2" customFormat="1" ht="58.5" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -1069,7 +1096,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="2" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" s="2" customFormat="1" ht="49.5" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
@@ -1086,7 +1113,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="2" customFormat="1" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" s="2" customFormat="1" ht="110.25">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -1101,7 +1128,7 @@
       </c>
       <c r="E10" s="7"/>
     </row>
-    <row r="11" spans="1:6" s="2" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" s="2" customFormat="1" ht="50.25" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
@@ -1118,8 +1145,10 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
+    <row r="12" spans="1:6" s="2" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A12" t="s">
+        <v>31</v>
+      </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1" t="s">
         <v>7</v>
@@ -1129,8 +1158,10 @@
       </c>
       <c r="E12" s="7"/>
     </row>
-    <row r="13" spans="1:6" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13"/>
+    <row r="13" spans="1:6" s="2" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A13" t="s">
+        <v>32</v>
+      </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
         <v>7</v>
@@ -1140,12 +1171,45 @@
       </c>
       <c r="E13" s="7"/>
     </row>
-    <row r="14" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" ht="24.95" customHeight="1">
+      <c r="A14" t="s">
+        <v>33</v>
+      </c>
       <c r="C14" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/API文档.xlsx
+++ b/API文档.xlsx
@@ -190,35 +190,37 @@
     <t>搜索接口：</t>
   </si>
   <si>
+    <t>params:cateId,keywords</t>
+  </si>
+  <si>
+    <t>methods:GET</t>
+  </si>
+  <si>
+    <t>我的手机 2017-12-11 23:37:04</t>
+  </si>
+  <si>
+    <t>报名接口：</t>
+  </si>
+  <si>
+    <t>params:country,education,grade,fullName,mobile</t>
+  </si>
+  <si>
+    <t>methods:POST</t>
+  </si>
+  <si>
     <t>URL:/frontend/college/search</t>
-  </si>
-  <si>
-    <t>params:cateId,keywords</t>
-  </si>
-  <si>
-    <t>methods:GET</t>
-  </si>
-  <si>
-    <t>我的手机 2017-12-11 23:37:04</t>
-  </si>
-  <si>
-    <t>报名接口：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>URL:/frontend/sign</t>
-  </si>
-  <si>
-    <t>params:country,education,grade,fullName,mobile</t>
-  </si>
-  <si>
-    <t>methods:POST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -312,6 +314,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -330,10 +339,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -363,9 +376,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -405,7 +420,7 @@
         <xdr:cNvPr id="1025" name="Picture 1" descr="C:\Users\Administrator\Documents\Tencent Files\519809848\Image\C2C\80QPG)2U8~V)9HJ@`I71BBD.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000001040000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -451,7 +466,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -504,7 +519,7 @@
         <xdr:cNvPr id="1026" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002040000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -557,7 +572,7 @@
         <xdr:cNvPr id="3" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -610,7 +625,7 @@
         <xdr:cNvPr id="4" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -663,7 +678,7 @@
         <xdr:cNvPr id="1027" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003040000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -956,7 +971,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -967,7 +982,7 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1159,8 +1174,8 @@
       <c r="E12" s="7"/>
     </row>
     <row r="13" spans="1:6" s="2" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A13" t="s">
-        <v>32</v>
+      <c r="A13" s="11" t="s">
+        <v>38</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
@@ -1173,7 +1188,7 @@
     </row>
     <row r="14" spans="1:6" ht="24.95" customHeight="1">
       <c r="A14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>7</v>
@@ -1184,32 +1199,32 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" t="s">
-        <v>37</v>
+      <c r="A20" s="11" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1217,8 +1232,12 @@
     <mergeCell ref="A1:F1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A13" r:id="rId1"/>
+    <hyperlink ref="A20" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>